--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1153633.211422022</v>
+        <v>1194837.639404283</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7184548.654533041</v>
+        <v>7794604.391561068</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>96.66772454376203</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>292.0778619076204</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>23.74886434989818</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -871,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.21029030982582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>97.64079345678128</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>292.0778619076204</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.38853515979522</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>147.8059119349161</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1136,10 +1138,10 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>43.36616070948365</v>
       </c>
       <c r="E8" t="n">
-        <v>174.8026910564364</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1294,19 +1296,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>213.8764542074655</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1373,19 +1375,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>174.2036864602376</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,16 +1423,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>133.7682651318491</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1771,19 +1773,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>153.4867647769901</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>77.34040729634083</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1850,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>146.3034971231916</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>226.5878864637942</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>58.31517967031825</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>38.90528114630904</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2719,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>58.61457513054057</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>101.9929615813389</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -3193,13 +3195,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3250,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>236.0932576465937</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>123.2464105143622</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3433,13 +3435,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3509,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.6893987380297</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>193.7205091235266</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3749,16 +3751,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.6472617351042</v>
       </c>
       <c r="H41" t="n">
-        <v>183.5615942638609</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>23.05269102310044</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>160.9061021023308</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>178.8249252223083</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4028,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4195,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>121.4106745125431</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1023.668571419646</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C2" t="n">
-        <v>596.7678414329459</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D2" t="n">
-        <v>173.4752206179462</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E2" t="n">
-        <v>75.83105441212597</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74727664193027</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>1090.853728201993</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>1764.655379315307</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>2148.789099203062</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>2148.789099203062</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O2" t="n">
-        <v>2148.789099203062</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2618.063619462288</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>2618.063619462288</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>2260.574204588538</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W2" t="n">
-        <v>2260.574204588538</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X2" t="n">
-        <v>1848.854205756285</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y2" t="n">
-        <v>1443.516935711176</v>
+        <v>180.6345712298752</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1480.866774040094</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>1363.360870557599</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>1259.520912072884</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>1154.818978345821</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>1061.173148028725</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>967.1193762463289</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>913.7432830086385</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>913.7432830086385</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>1185.44077228823</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>1775.925698856569</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>1775.925698856569</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M3" t="n">
-        <v>1775.925698856569</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N3" t="n">
-        <v>1775.925698856569</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O3" t="n">
-        <v>1775.925698856569</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P3" t="n">
-        <v>2258.285436726369</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>2722.430913589148</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2722.430913589148</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2641.106666150403</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2499.226730448081</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>2314.458534367718</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>2109.485395506984</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1912.964018340201</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1749.486672106864</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1609.793783460156</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>489.5065225258203</v>
+        <v>822.1431207216926</v>
       </c>
       <c r="C4" t="n">
-        <v>317.5339594047363</v>
+        <v>650.1705576006086</v>
       </c>
       <c r="D4" t="n">
-        <v>154.217186531507</v>
+        <v>650.1705576006086</v>
       </c>
       <c r="E4" t="n">
-        <v>154.217186531507</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>154.217186531507</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>154.217186531507</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2017.687984891219</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1774.348637117119</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.164188617424</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.452721225452</v>
+        <v>1529.72538981544</v>
       </c>
       <c r="W4" t="n">
-        <v>937.6003173979655</v>
+        <v>1254.872985987953</v>
       </c>
       <c r="X4" t="n">
-        <v>695.0364208437705</v>
+        <v>1012.309089433758</v>
       </c>
       <c r="Y4" t="n">
-        <v>679.6724912378859</v>
+        <v>1012.309089433758</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2293.606088501064</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C5" t="n">
-        <v>1866.705358514364</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D5" t="n">
-        <v>1443.412737699364</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>1017.435797847222</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>592.311616036622</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>187.9725536260706</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1402.051920498411</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>2048.629262475834</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>2722.430913589148</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2722.430913589148</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>2722.430913589148</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X5" t="n">
-        <v>2714.7513187973</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y5" t="n">
-        <v>2713.454452792594</v>
+        <v>180.6345712298752</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>644.9335448401225</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>644.9335448401225</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>644.9335448401225</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>1189.334597738979</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>1189.334597738979</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>993.8334723041743</v>
+        <v>689.8407992411743</v>
       </c>
       <c r="C7" t="n">
-        <v>821.8609091830903</v>
+        <v>517.8682361200903</v>
       </c>
       <c r="D7" t="n">
-        <v>658.544136309861</v>
+        <v>354.551463246861</v>
       </c>
       <c r="E7" t="n">
-        <v>492.3359304627145</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F7" t="n">
-        <v>320.4741562372749</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>154.217186531507</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>1774.348637117119</v>
+        <v>1905.477304037151</v>
       </c>
       <c r="V7" t="n">
-        <v>1774.348637117119</v>
+        <v>1623.76583664518</v>
       </c>
       <c r="W7" t="n">
-        <v>1499.496233289632</v>
+        <v>1348.913432817693</v>
       </c>
       <c r="X7" t="n">
-        <v>1256.932336735438</v>
+        <v>1106.349536263498</v>
       </c>
       <c r="Y7" t="n">
-        <v>1030.58956842518</v>
+        <v>880.0067679532399</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1435.358029800801</v>
+        <v>1699.368187588183</v>
       </c>
       <c r="C8" t="n">
-        <v>1412.497703854505</v>
+        <v>1676.507861641888</v>
       </c>
       <c r="D8" t="n">
-        <v>1393.245487079909</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.677112275428</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>791.5529304648283</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>387.2138680542769</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>728.2502693850971</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>1402.051920498411</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M8" t="n">
-        <v>1402.051920498411</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>2075.853571611725</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>2260.574204588538</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1864.182854888885</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X8" t="n">
-        <v>1452.462856056632</v>
+        <v>1716.473013844015</v>
       </c>
       <c r="Y8" t="n">
-        <v>1451.165990051927</v>
+        <v>1715.176147839309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>515.5329466256644</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>515.5329466256644</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N9" t="n">
-        <v>515.5329466256644</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O9" t="n">
-        <v>1189.334597738979</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1037.861172536296</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>865.8886094152118</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>702.5718365419825</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>536.363630694836</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>364.5018564693964</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>198.2448867636286</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2187.823032372085</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2187.823032372085</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>2187.823032372085</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1971.786209940301</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1696.933806112814</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1454.369909558619</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1228.027141248361</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1381.157986293396</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>954.2572563066963</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>778.2939366498906</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>352.3169967977481</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>352.3169967977481</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>352.3169967977481</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>728.2502693850971</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1402.051920498411</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1402.051920498411</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>2075.853571611725</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O11" t="n">
-        <v>2075.853571611725</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2618.063619462288</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2618.063619462288</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2618.063619462288</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2618.063619462288</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2206.343620630036</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1801.006350584926</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>728.2502693850971</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M12" t="n">
-        <v>1402.051920498411</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.136248852293</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.6936525335126</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>468.6936525335126</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>468.6936525335126</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>468.6936525335126</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1890.862550465365</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>1463.961820478665</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1040.669199663666</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>614.6922598115233</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>189.5680780009235</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>244.9404807450223</v>
+        <v>415.4757434162548</v>
       </c>
       <c r="K14" t="n">
-        <v>244.9404807450223</v>
+        <v>1130.984051391754</v>
       </c>
       <c r="L14" t="n">
-        <v>918.7421318583365</v>
+        <v>2060.609099011031</v>
       </c>
       <c r="M14" t="n">
-        <v>918.7421318583365</v>
+        <v>3064.895200430089</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.543782971651</v>
+        <v>4041.14625891679</v>
       </c>
       <c r="O14" t="n">
-        <v>1592.543782971651</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="P14" t="n">
-        <v>2266.345434084965</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2722.430913589148</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>2310.710914756895</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2310.710914756895</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>515.5329466256644</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>515.5329466256644</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>515.5329466256644</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N15" t="n">
-        <v>515.5329466256644</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1189.334597738979</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>799.5597607234338</v>
+        <v>939.6932306516574</v>
       </c>
       <c r="C16" t="n">
-        <v>627.5871976023498</v>
+        <v>767.7206675305733</v>
       </c>
       <c r="D16" t="n">
-        <v>464.2704247291205</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E16" t="n">
-        <v>464.2704247291205</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>1862.650848752846</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U16" t="n">
-        <v>1582.46640025315</v>
+        <v>2155.329735447634</v>
       </c>
       <c r="V16" t="n">
-        <v>1300.754932861179</v>
+        <v>1873.618268055663</v>
       </c>
       <c r="W16" t="n">
-        <v>1025.902529033692</v>
+        <v>1598.765864228176</v>
       </c>
       <c r="X16" t="n">
-        <v>1025.902529033692</v>
+        <v>1356.201967673981</v>
       </c>
       <c r="Y16" t="n">
-        <v>799.5597607234338</v>
+        <v>1129.859199363723</v>
       </c>
     </row>
     <row r="17">
@@ -5498,28 +5500,28 @@
         <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>366.6855125151251</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1082.193820490624</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.818868109901</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M17" t="n">
         <v>2011.818868109901</v>
@@ -5601,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5695,22 +5697,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U19" t="n">
-        <v>1992.33777973203</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V19" t="n">
-        <v>1992.33777973203</v>
+        <v>1830.869225946121</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1830.869225946121</v>
       </c>
       <c r="X19" t="n">
         <v>1601.992572952389</v>
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,34 +5740,34 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
         <v>4997.579335409525</v>
@@ -5777,10 +5779,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1112.773316863137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1112.773316863137</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>747.5965237391339</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C22" t="n">
-        <v>575.6239606180499</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D22" t="n">
-        <v>412.3071877448206</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="E22" t="n">
-        <v>246.0989818976742</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2243.417477034806</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1963.23302853511</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1681.521561143139</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1406.669157315652</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1164.105260761457</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>937.7624924511995</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.79262694784</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.958004048024</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.773555548329</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.062088156358</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.20968432887</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6457877746757</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3030194644177</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6229,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6309,10 +6311,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>771.3692302638447</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C28" t="n">
-        <v>599.3966671427606</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D28" t="n">
-        <v>599.3966671427606</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E28" t="n">
-        <v>540.1900255967601</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1430.441863840363</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.441863840363</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.877967286168</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>961.5351989759104</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>3306.448039710919</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>3306.448039710919</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>3934.79247639015</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>4650.990193428648</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6701,19 +6703,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8490191059097</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8764559848257</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D34" t="n">
-        <v>268.5596831115964</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X34" t="n">
-        <v>794.0149878179755</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y34" t="n">
-        <v>794.0149878179755</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,19 +6940,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -6962,10 +6964,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7023,7 +7025,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7102,43 +7104,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.677127506133</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U37" t="n">
-        <v>2235.677127506133</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V37" t="n">
-        <v>1953.965660114162</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W37" t="n">
-        <v>1679.113256286675</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X37" t="n">
-        <v>1436.54935973248</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y37" t="n">
-        <v>1210.206591422222</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
         <v>1264.531207409474</v>
@@ -7172,22 +7174,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
         <v>5115.135670291427</v>
@@ -7199,25 +7201,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7257,10 +7259,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>374.0438447866366</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
         <v>202.0712816655526</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.864798082309</v>
       </c>
       <c r="U40" t="n">
-        <v>2112.580693338092</v>
+        <v>1589.680349582613</v>
       </c>
       <c r="V40" t="n">
-        <v>1830.869225946121</v>
+        <v>1307.968882190642</v>
       </c>
       <c r="W40" t="n">
-        <v>1556.016822118634</v>
+        <v>1033.116478363155</v>
       </c>
       <c r="X40" t="n">
-        <v>1313.452925564439</v>
+        <v>790.5525818089602</v>
       </c>
       <c r="Y40" t="n">
-        <v>1313.452925564439</v>
+        <v>564.2098134987023</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1089.133930720603</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C41" t="n">
-        <v>1089.133930720603</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D41" t="n">
-        <v>665.8413099056031</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E41" t="n">
-        <v>239.8643700534607</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F41" t="n">
-        <v>239.8643700534607</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G41" t="n">
-        <v>239.8643700534607</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L41" t="n">
-        <v>1090.853728201993</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M41" t="n">
-        <v>1764.655379315307</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N41" t="n">
-        <v>1764.655379315307</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>1764.655379315307</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>2438.457030428621</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U41" t="n">
-        <v>2722.430913589148</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V41" t="n">
-        <v>2722.430913589148</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W41" t="n">
-        <v>2326.039563889495</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X41" t="n">
-        <v>1914.319565057242</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y41" t="n">
-        <v>1508.982295012133</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1480.866774040094</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>1363.360870557599</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>1259.520912072884</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>1154.818978345821</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>1061.173148028725</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>967.1193762463289</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>913.7432830086385</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K42" t="n">
-        <v>913.7432830086385</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L42" t="n">
-        <v>913.7432830086385</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M42" t="n">
-        <v>1584.483785613055</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N42" t="n">
-        <v>2258.285436726369</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O42" t="n">
-        <v>2258.285436726369</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P42" t="n">
-        <v>2258.285436726369</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>2641.106666150403</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>2499.226730448081</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>2314.458534367718</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>2109.485395506984</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1912.964018340201</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>1749.486672106864</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>1609.793783460156</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>561.3605924535462</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>389.3880293324622</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>389.3880293324622</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>389.3880293324622</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>389.3880293324622</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>223.1310596266944</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>1991.522297910811</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U43" t="n">
-        <v>1991.522297910811</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V43" t="n">
-        <v>1991.522297910811</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W43" t="n">
-        <v>1716.669894083324</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>387.2138680542769</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>387.2138680542769</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>387.2138680542769</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>387.2138680542769</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>387.2138680542769</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>387.2138680542769</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>89.34548952831176</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>728.2502693850971</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>728.2502693850971</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>1402.051920498411</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N44" t="n">
-        <v>1402.051920498411</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O44" t="n">
-        <v>2075.853571611725</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P44" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2397.138048506922</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U44" t="n">
-        <v>2138.783139103334</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>1781.293724229584</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>1384.902374529931</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>973.1823756976778</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>567.8451056525681</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>61.8952612336948</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>61.8952612336948</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K45" t="n">
-        <v>61.8952612336948</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L45" t="n">
-        <v>515.5329466256644</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="M45" t="n">
-        <v>515.5329466256644</v>
+        <v>3914.532297476635</v>
       </c>
       <c r="N45" t="n">
-        <v>1189.334597738979</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>3047.513282086041</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>2875.540718964957</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S46" t="n">
-        <v>2064.726598204046</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T46" t="n">
-        <v>2064.726598204046</v>
+        <v>4543.334235381712</v>
       </c>
       <c r="U46" t="n">
-        <v>1784.542149704351</v>
+        <v>4263.149786882017</v>
       </c>
       <c r="V46" t="n">
-        <v>1502.830682312379</v>
+        <v>3981.438319490046</v>
       </c>
       <c r="W46" t="n">
-        <v>1380.193637350215</v>
+        <v>3706.585915662559</v>
       </c>
       <c r="X46" t="n">
-        <v>1137.62974079602</v>
+        <v>3464.022019108364</v>
       </c>
       <c r="Y46" t="n">
-        <v>1137.62974079602</v>
+        <v>3237.679250798106</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>425.4451213719119</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8058,7 +8060,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8067,13 +8069,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>548.7966943283913</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>509.0028996591717</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>690.388049074267</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8295,22 +8297,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>571.2430816467296</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>702.3785696021157</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>690.4993855958451</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8535,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>488.256832526231</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721212</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>702.3785696021157</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>653.2657740422958</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>571.9400154420696</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8772,16 +8774,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>703.1228151115166</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N12" t="n">
-        <v>487.0847740255433</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>221.8359821858284</v>
+        <v>348.0046044727225</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1409796453348</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>296.4732919192194</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>164.7792732268216</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0689695543915</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9957,13 +9959,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10197,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>657.863239903264</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10434,7 +10436,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10905,13 +10907,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1004.802661823039</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11063,25 +11065,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>476.2554127892232</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>322.9669808273529</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11145,10 +11147,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>700.6124397087081</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>1105.024507443985</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>571.9400154420696</v>
+        <v>474.9037794053499</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11379,16 +11381,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>480.7349709485423</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>244.8560081466121</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23309,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>266.5274066545967</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>87.4191895193689</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>200.0421967183579</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>125.8003826660205</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>13.55037112485869</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>106.2309441183567</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>202.0006731500499</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>105.9315486581344</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>68.15019490184626</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25123,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>4.044999942059206</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.01789851058275</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61.57491028691533</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>47.18544517283243</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>4.648410051341671</v>
       </c>
       <c r="H41" t="n">
-        <v>111.3281004768446</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>119.3056147838267</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>79.23215548632211</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.8249554263064</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>150.693205276669</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>684056.1816564478</v>
+        <v>681115.9912227222</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>684056.1816564478</v>
+        <v>681115.9912227222</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>684056.1816564478</v>
+        <v>681115.9912227222</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>453210.8206975167</v>
+        <v>664905.9674503978</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>453210.8206975167</v>
+        <v>664905.9674503978</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675232.5437235804</v>
+        <v>675232.5437235803</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675232.5437235803</v>
+        <v>675232.5437235804</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>453210.8206975168</v>
+        <v>664905.9674503977</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453210.8206975168</v>
+        <v>664905.9674503979</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26316,34 @@
         <v>364026.667506977</v>
       </c>
       <c r="C2" t="n">
+        <v>364026.667506977</v>
+      </c>
+      <c r="D2" t="n">
         <v>364026.6675069771</v>
       </c>
-      <c r="D2" t="n">
-        <v>364026.667506977</v>
-      </c>
       <c r="E2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="F2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="G2" t="n">
         <v>351269.0019609046</v>
       </c>
       <c r="H2" t="n">
-        <v>351269.0019609048</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="I2" t="n">
-        <v>351269.0019609047</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="J2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="K2" t="n">
         <v>351269.0019609046</v>
       </c>
       <c r="L2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="M2" t="n">
         <v>351269.0019609046</v>
@@ -26350,10 +26352,10 @@
         <v>351269.0019609046</v>
       </c>
       <c r="O2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068673</v>
       </c>
       <c r="P2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.393406867</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146444.4874988407</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="C4" t="n">
-        <v>146444.4874988407</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>146444.4874988407</v>
+        <v>165375.7390424567</v>
       </c>
       <c r="E4" t="n">
-        <v>29325.43720283133</v>
+        <v>43077.56596046205</v>
       </c>
       <c r="F4" t="n">
-        <v>29325.43720283133</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="G4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="J4" t="n">
         <v>43748.40045389557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43748.40045389557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
@@ -26451,13 +26453,13 @@
         <v>43748.40045389556</v>
       </c>
       <c r="N4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="O4" t="n">
-        <v>29325.43720283132</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="P4" t="n">
-        <v>29325.43720283132</v>
+        <v>43077.56596046205</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85513.67364210267</v>
+        <v>-55200.05598764494</v>
       </c>
       <c r="C6" t="n">
-        <v>142573.6301215814</v>
+        <v>131204.6774270923</v>
       </c>
       <c r="D6" t="n">
-        <v>142573.6301215813</v>
+        <v>131204.6774270923</v>
       </c>
       <c r="E6" t="n">
-        <v>165072.8576626288</v>
+        <v>19329.06172181177</v>
       </c>
       <c r="F6" t="n">
-        <v>165072.8576626288</v>
+        <v>226761.3493383727</v>
       </c>
       <c r="G6" t="n">
-        <v>65819.41850839333</v>
+        <v>222144.9172350978</v>
       </c>
       <c r="H6" t="n">
-        <v>229770.5393185795</v>
+        <v>229770.5393185794</v>
       </c>
       <c r="I6" t="n">
         <v>229770.5393185794</v>
       </c>
       <c r="J6" t="n">
-        <v>51693.61082979942</v>
+        <v>84236.86938376282</v>
       </c>
       <c r="K6" t="n">
         <v>229770.5393185794</v>
       </c>
       <c r="L6" t="n">
-        <v>229770.5393185793</v>
+        <v>229770.5393185794</v>
       </c>
       <c r="M6" t="n">
-        <v>229770.5393185793</v>
+        <v>56640.04811293982</v>
       </c>
       <c r="N6" t="n">
         <v>229770.5393185793</v>
       </c>
       <c r="O6" t="n">
-        <v>165072.8576626288</v>
+        <v>226761.3493383728</v>
       </c>
       <c r="P6" t="n">
-        <v>165072.8576626288</v>
+        <v>226761.3493383726</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>325.0494459098589</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>109.2060354370381</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>140.7972594387768</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.8690503173296</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>197.2489012839242</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>109.2060354370381</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.8757738651498</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>129.5766920797826</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27856,10 +27858,10 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>375.693533897366</v>
       </c>
       <c r="E8" t="n">
-        <v>246.9144793971846</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28014,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>65.01789851058589</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30034,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30174,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>388.01385847248</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34778,7 +34780,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>487.232058454343</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>653.1084262398209</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>549.900053433188</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>680.607728397287</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>465.7417458120015</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>158.2737632597932</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>615.9861512078497</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>534.3646536318383</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>680.607728397287</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>192.4160227002418</v>
+        <v>318.584644987136</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>267.0533324336329</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>142.264186512592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>499.553882840162</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>634.6913501810418</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37470,7 +37472,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>395.1371666366201</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
         <v>381.3045564404402</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>981.7058813107108</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>437.9433703566003</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>286.8423062227549</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>677.5156591963801</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>1083.681479230444</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>534.3646536318383</v>
+        <v>437.3284175951186</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>458.2198842343128</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1194837.639404283</v>
+        <v>1194119.649289425</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -667,10 +667,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>346.17149958996</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>292.0778619076204</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -822,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>23.74886434989818</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -873,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>15.21029030982649</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>61.03269750657429</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.0778619076204</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>147.8059119349161</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>135.6611918123733</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>43.36616070948365</v>
+        <v>76.1273791797441</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429392</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>311.0876633699169</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1387,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4655660477363</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>234.6600538262509</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1624,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>284.4554049657235</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1770,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>77.34040729634083</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1852,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2019,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>31.10981093430875</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>226.5878864637942</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>58.31517967031825</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2256,10 +2256,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>4.322062388456461</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>25.45817320599514</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>101.9929615813389</v>
+        <v>58.33552926585361</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>128.5736654617868</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3192,16 +3192,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3666,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>193.7205091235266</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>395.6472617351042</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>101.9929615813387</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>23.05269102310044</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>110.7442840088803</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164.8266109787492</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C2" t="n">
-        <v>141.9662850324534</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D2" t="n">
-        <v>122.7140682578577</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E2" t="n">
-        <v>100.7775324461193</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F2" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4336,19 +4336,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M2" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="N2" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="M2" t="n">
-        <v>957.7672188505812</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1006.023847611597</v>
-      </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580474</v>
@@ -4360,22 +4360,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="W2" t="n">
-        <v>887.3827134031587</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X2" t="n">
-        <v>475.662714570906</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.6345712298752</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="3">
@@ -4421,16 +4421,16 @@
         <v>316.1957143288386</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825398</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825398</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>822.1431207216926</v>
+        <v>479.5561293032848</v>
       </c>
       <c r="C4" t="n">
-        <v>650.1705576006086</v>
+        <v>307.5835661822009</v>
       </c>
       <c r="D4" t="n">
-        <v>650.1705576006086</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1811.436857207411</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1529.72538981544</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1254.872985987953</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>1012.309089433758</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>1012.309089433758</v>
+        <v>669.7220980153504</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164.8266109787492</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>141.9662850324534</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>122.7140682578577</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
         <v>100.7775324461193</v>
@@ -4567,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>887.3827134031587</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X5" t="n">
-        <v>475.662714570906</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.6345712298752</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>1696.494830002562</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.8407992411743</v>
+        <v>817.6261093758709</v>
       </c>
       <c r="C7" t="n">
-        <v>517.8682361200903</v>
+        <v>645.6535462547869</v>
       </c>
       <c r="D7" t="n">
-        <v>354.551463246861</v>
+        <v>482.3367733815576</v>
       </c>
       <c r="E7" t="n">
-        <v>354.551463246861</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4752,25 +4752,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1905.477304037151</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>1623.76583664518</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>1348.913432817693</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>1106.349536263498</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.0067679532399</v>
+        <v>1007.792078087936</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1699.368187588183</v>
+        <v>591.614269593831</v>
       </c>
       <c r="C8" t="n">
-        <v>1676.507861641888</v>
+        <v>164.7135396071311</v>
       </c>
       <c r="D8" t="n">
-        <v>1632.703658905035</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>1206.726719052893</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422929</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>667.4947029893171</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.160237973755</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N8" t="n">
-        <v>1768.825772958194</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1724.152608635864</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X8" t="n">
-        <v>1716.473013844015</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1715.176147839309</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D10" t="n">
         <v>44.49822504924753</v>
@@ -4959,55 +4959,55 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="J10" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="11">
@@ -5023,37 +5023,37 @@
         <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919694</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.242781067552</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>728.1185992569519</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>323.7795368464006</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>462.6804036958856</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>1178.188711671385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>2107.813759290661</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M11" t="n">
-        <v>3112.09986070972</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
         <v>3721.926150405491</v>
@@ -5117,25 +5117,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>936.8757529618962</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.283297448028</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>604.5146835529885</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>432.5421204319044</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>432.5421204319044</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>266.333914584758</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5226,25 +5226,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2280.489972292118</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.489972292118</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>2280.489972292118</v>
+        <v>1629.9852196369</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.183104807232</v>
+        <v>1348.273752244928</v>
       </c>
       <c r="W13" t="n">
-        <v>1842.330700979745</v>
+        <v>1073.421348417441</v>
       </c>
       <c r="X13" t="n">
-        <v>1599.766804425551</v>
+        <v>830.8574518632464</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.424036115293</v>
+        <v>604.5146835529885</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>415.4757434162548</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>1130.984051391754</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>2060.609099011031</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="M14" t="n">
-        <v>3064.895200430089</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N14" t="n">
-        <v>4041.14625891679</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O14" t="n">
-        <v>4886.290909067602</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
-        <v>4886.290909067602</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5317,13 +5317,13 @@
         <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M15" t="n">
-        <v>1156.063482855035</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>939.6932306516574</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C16" t="n">
-        <v>767.7206675305733</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D16" t="n">
-        <v>604.403894657344</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E16" t="n">
-        <v>438.1956888101976</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F16" t="n">
-        <v>266.333914584758</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
         <v>100.0769448789901</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.451358979291</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T16" t="n">
-        <v>2233.451358979291</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U16" t="n">
-        <v>2155.329735447634</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V16" t="n">
-        <v>1873.618268055663</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W16" t="n">
-        <v>1598.765864228176</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X16" t="n">
-        <v>1356.201967673981</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y16" t="n">
-        <v>1129.859199363723</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="17">
@@ -5500,31 +5500,31 @@
         <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
         <v>2988.069926596602</v>
@@ -5591,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2112.580693338092</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1830.869225946121</v>
+        <v>1510.594232302672</v>
       </c>
       <c r="W19" t="n">
-        <v>1830.869225946121</v>
+        <v>1510.594232302672</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1268.030335748478</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>1041.68756743822</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5840,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>742.8905159778161</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C22" t="n">
-        <v>742.8905159778161</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D22" t="n">
-        <v>742.8905159778161</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>272.9254026958959</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>106.668432990128</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>106.668432990128</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.8905159778161</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G25" t="n">
         <v>345.8675501573982</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>2235.67712750613</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>2235.67712750613</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>543.5554397491844</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C28" t="n">
-        <v>371.5828766281004</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D28" t="n">
-        <v>371.5828766281004</v>
+        <v>161.2274904420443</v>
       </c>
       <c r="E28" t="n">
-        <v>371.5828766281004</v>
+        <v>161.2274904420443</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X28" t="n">
-        <v>960.064176771508</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.72140846125</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="29">
@@ -6551,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>603.8490191059097</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,19 +6776,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6888,22 +6888,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>2099.621208542961</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>1819.436760043265</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.725292651294</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.872888823807</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.308992269612</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,19 +7013,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2099.621208542961</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1819.436760043265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.725292651294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.872888823807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7183,43 +7183,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>374.0438447866366</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.864798082309</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.680349582613</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.968882190642</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1033.116478363155</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>790.5525818089602</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>564.2098134987023</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2533.780365848253</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>2106.879635861554</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1683.587015046554</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1257.610075194411</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>832.4858933838116</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
         <v>432.8421946614841</v>
@@ -7414,13 +7414,13 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1900.530441767978</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N41" t="n">
         <v>2876.781500254679</v>
@@ -7438,25 +7438,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>5003.847243949504</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4782.921672994137</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4524.566763590549</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4167.077348716799</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3770.685999017146</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3358.966000184893</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.628730139784</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>371.7744341585812</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N42" t="n">
-        <v>1444.619098596721</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="O42" t="n">
-        <v>1444.619098596721</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="P42" t="n">
         <v>1444.619098596721</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561.3605924535462</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>389.3880293324622</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>389.3880293324622</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E43" t="n">
-        <v>389.3880293324622</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="F43" t="n">
-        <v>389.3880293324622</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G43" t="n">
-        <v>223.1310596266944</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
@@ -7596,25 +7596,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2110.354924811253</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>1867.015577037153</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>1586.831128537457</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>1305.119661145486</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>1030.267257317999</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>787.7033607638042</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>561.3605924535462</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7654,22 +7654,22 @@
         <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>1745.210300473766</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M44" t="n">
-        <v>2749.496401892824</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N44" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>4570.892110530337</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>5003.847243949504</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
@@ -7678,22 +7678,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>3195.159613368996</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M45" t="n">
-        <v>3914.532297476635</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3047.513282086041</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>2875.540718964957</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>2823.434216536376</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>2823.434216536376</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381712</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>4263.149786882017</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>3981.438319490046</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>3706.585915662559</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>3464.022019108364</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>3237.679250798106</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7984,22 +7984,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>86.02369229001789</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8069,19 +8069,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>548.7966943283913</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>379.9589183367957</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>453.322231905261</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>300.3028744740158</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P6" t="n">
-        <v>180.0446044646217</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>301.3352940721928</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3705437721212</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>372.8619081923508</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>842.5215328062894</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>653.2657740422958</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8765,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>247.6270611911681</v>
       </c>
       <c r="M12" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>348.0046044727225</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>886.6939262492853</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9239,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9488,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>1027.220259954781</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10199,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>398.5805034488242</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11062,16 +11062,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>476.2554127892232</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11138,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11147,16 +11147,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.024507443985</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>313.2411601358238</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11302,7 +11302,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>119.7858681845732</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
@@ -11314,13 +11314,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>474.9037794053499</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685286</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>73.42412869296919</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>42.72255018844783</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>200.0421967183579</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>247.7845417837426</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>13.55037112485869</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>106.2309441183567</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>94.44882018867033</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>144.68498327719</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>68.15019490184626</v>
+        <v>111.8076272173316</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>59.69064356315815</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25128,7 +25128,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25362,10 +25362,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>63.52994056050431</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25569,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.18544517283243</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.648410051341671</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>68.15019490184649</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>119.3056147838267</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>107.9720312369329</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675232.5437235803</v>
+        <v>675232.5437235804</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675232.5437235804</v>
+        <v>675232.5437235803</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675232.5437235804</v>
+        <v>675232.5437235803</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675232.5437235803</v>
+        <v>675232.5437235804</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664905.9674503977</v>
+        <v>664905.9674503979</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364026.667506977</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="C2" t="n">
-        <v>364026.667506977</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="D2" t="n">
         <v>364026.6675069771</v>
       </c>
       <c r="E2" t="n">
-        <v>345897.3934068672</v>
+        <v>345897.3934068674</v>
       </c>
       <c r="F2" t="n">
-        <v>345897.3934068672</v>
+        <v>345897.3934068673</v>
       </c>
       <c r="G2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="H2" t="n">
         <v>351269.0019609046</v>
       </c>
       <c r="I2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="J2" t="n">
         <v>351269.0019609046</v>
@@ -26343,19 +26343,19 @@
         <v>351269.0019609046</v>
       </c>
       <c r="L2" t="n">
+        <v>351269.0019609045</v>
+      </c>
+      <c r="M2" t="n">
         <v>351269.0019609047</v>
       </c>
-      <c r="M2" t="n">
-        <v>351269.0019609046</v>
-      </c>
       <c r="N2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="O2" t="n">
         <v>345897.3934068673</v>
       </c>
       <c r="P2" t="n">
-        <v>345897.393406867</v>
+        <v>345897.3934068672</v>
       </c>
     </row>
     <row r="3">
@@ -26423,19 +26423,19 @@
         <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>165375.7390424567</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>43077.56596046205</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="F4" t="n">
         <v>43077.56596046206</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
@@ -26447,10 +26447,10 @@
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="N4" t="n">
         <v>43748.40045389557</v>
@@ -26459,7 +26459,7 @@
         <v>43077.56596046206</v>
       </c>
       <c r="P4" t="n">
-        <v>43077.56596046205</v>
+        <v>43077.56596046206</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55200.05598764494</v>
+        <v>-55200.05598764488</v>
       </c>
       <c r="C6" t="n">
-        <v>131204.6774270923</v>
+        <v>131204.6774270924</v>
       </c>
       <c r="D6" t="n">
-        <v>131204.6774270923</v>
+        <v>131204.6774270924</v>
       </c>
       <c r="E6" t="n">
-        <v>19329.06172181177</v>
+        <v>19256.5446254115</v>
       </c>
       <c r="F6" t="n">
-        <v>226761.3493383727</v>
+        <v>226688.8322419723</v>
       </c>
       <c r="G6" t="n">
-        <v>222144.9172350978</v>
+        <v>222093.8865729137</v>
       </c>
       <c r="H6" t="n">
-        <v>229770.5393185794</v>
+        <v>229719.5086563951</v>
       </c>
       <c r="I6" t="n">
-        <v>229770.5393185794</v>
+        <v>229719.5086563951</v>
       </c>
       <c r="J6" t="n">
-        <v>84236.86938376282</v>
+        <v>84185.83872157858</v>
       </c>
       <c r="K6" t="n">
-        <v>229770.5393185794</v>
+        <v>229719.508656395</v>
       </c>
       <c r="L6" t="n">
-        <v>229770.5393185794</v>
+        <v>229719.508656395</v>
       </c>
       <c r="M6" t="n">
-        <v>56640.04811293982</v>
+        <v>56589.01745075559</v>
       </c>
       <c r="N6" t="n">
-        <v>229770.5393185793</v>
+        <v>229719.5086563952</v>
       </c>
       <c r="O6" t="n">
-        <v>226761.3493383728</v>
+        <v>226688.8322419724</v>
       </c>
       <c r="P6" t="n">
-        <v>226761.3493383726</v>
+        <v>226688.8322419722</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,10 +27387,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7.74302113505297</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>109.2060354370381</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>140.7972594387768</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>208.8690503173289</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>331.3947386960823</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>109.2060354370381</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>129.5766920797826</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>88.41814881478211</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>342.9323154271056</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>375.693533897366</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>110.0981677402022</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -34704,22 +34704,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>48.74406945557187</v>
-      </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34789,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>415.0101894726381</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>158.2737632597931</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>804.2094903736665</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>615.9861512078497</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>225.1119744769386</v>
       </c>
       <c r="M12" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>318.584644987136</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>848.3818838166624</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>989.7889970553492</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>376.8096622439955</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>437.9433703566003</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>1083.681479230444</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38022,7 +38022,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>81.47382575195027</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
@@ -38034,13 +38034,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>437.3284175951186</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562006</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
